--- a/我的创作/财务/国家基本面.xlsx
+++ b/我的创作/财务/国家基本面.xlsx
@@ -491,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -509,6 +509,50 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -626,7 +670,7 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,7 +703,7 @@
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,19 +721,19 @@
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,7 +769,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,13 +787,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,11 +802,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,6 +825,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,13 +861,34 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,14 +1240,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AV7"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1192,681 +1260,1023 @@
     <col min="14" max="20" width="19.9285714285714" style="1" customWidth="1"/>
     <col min="21" max="23" width="19.9285714285714" style="2" customWidth="1"/>
     <col min="24" max="25" width="19.9285714285714" style="3" customWidth="1"/>
-    <col min="26" max="29" width="19.9285714285714" style="4" customWidth="1"/>
-    <col min="30" max="31" width="19.9285714285714" style="3" customWidth="1"/>
-    <col min="32" max="32" width="19.9285714285714" style="4" customWidth="1"/>
-    <col min="33" max="33" width="19.9285714285714" style="2" customWidth="1"/>
-    <col min="34" max="34" width="14.2857142857143" style="2"/>
-    <col min="35" max="36" width="12.7857142857143" style="3"/>
-    <col min="37" max="37" width="13.9285714285714" style="4"/>
-    <col min="38" max="40" width="12.0714285714286" style="2"/>
-    <col min="41" max="42" width="12.7857142857143" style="3"/>
-    <col min="43" max="43" width="12.0714285714286" style="2"/>
-    <col min="44" max="44" width="10.3571428571429" style="2"/>
-    <col min="45" max="45" width="12.0714285714286" style="2"/>
-    <col min="46" max="47" width="12.7857142857143" style="3"/>
-    <col min="48" max="48" width="12.0714285714286" style="5"/>
+    <col min="26" max="30" width="19.9285714285714" style="4" customWidth="1"/>
+    <col min="31" max="32" width="19.9285714285714" style="3" customWidth="1"/>
+    <col min="33" max="33" width="19.9285714285714" style="4" customWidth="1"/>
+    <col min="34" max="34" width="19.9285714285714" style="2" customWidth="1"/>
+    <col min="35" max="35" width="14.2857142857143" style="2"/>
+    <col min="36" max="37" width="12.7857142857143" style="3"/>
+    <col min="38" max="38" width="13.9285714285714" style="4"/>
+    <col min="39" max="39" width="12.0714285714286" style="3"/>
+    <col min="40" max="42" width="12.0714285714286" style="2"/>
+    <col min="43" max="44" width="12.7857142857143" style="3"/>
+    <col min="45" max="47" width="12.0714285714286" style="2"/>
+    <col min="48" max="49" width="12.7857142857143" style="3"/>
+    <col min="50" max="50" width="12.0714285714286" style="5"/>
+    <col min="51" max="51" width="12.7857142857143" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:51">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="16" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="16" t="s">
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="17" t="s">
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="10" t="s">
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="19" t="s">
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="25" t="s">
         <v>5</v>
       </c>
+      <c r="AY1" s="26"/>
     </row>
-    <row r="2" spans="1:48">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:51">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="17" t="s">
+      <c r="AC2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="17" t="s">
+      <c r="AD2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AE2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AF2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AG2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AH2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AI2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AK2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="10" t="s">
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AO2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="14" t="s">
+      <c r="AR2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AS2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AT2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AU2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AT2" s="14" t="s">
+      <c r="AV2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AU2" s="14" t="s">
+      <c r="AW2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="19"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="26"/>
     </row>
-    <row r="3" spans="1:48">
-      <c r="A3" s="11">
+    <row r="3" spans="1:51">
+      <c r="A3" s="12">
         <v>2021</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>172731</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>29808</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>202539</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>91462</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>111077</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="16">
         <f>B3/D3</f>
         <v>0.852828344170752</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="16">
         <f>C3/D3</f>
         <v>0.147171655829248</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="15">
         <f>E3/D3</f>
         <v>0.451577227101941</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="15">
         <f>F3/D3</f>
         <v>0.548422772898059</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="10">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="11">
         <v>246322</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="8">
         <v>35050</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="8">
         <v>211272</v>
       </c>
-      <c r="X3" s="14">
+      <c r="X3" s="15">
         <f>V3/U3</f>
         <v>0.142293420806911</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y3" s="15">
         <f>W3/U3</f>
         <v>0.857706579193089</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="Z3" s="22">
         <f>D3-U3</f>
         <v>-43783</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="16">
+        <f>(Z3-Z4)/Z4</f>
+        <v>-0.301628570972836</v>
+      </c>
+      <c r="AB3" s="8">
         <v>98024</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AC3" s="8">
         <v>4088</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AD3" s="8">
         <v>93936</v>
       </c>
-      <c r="AD3" s="15">
-        <f>AB3/AA3</f>
+      <c r="AE3" s="16">
+        <f>AC3/AB3</f>
         <v>0.0417040724720477</v>
       </c>
-      <c r="AE3" s="15">
-        <f>AC3/AA3</f>
+      <c r="AF3" s="16">
+        <f>AD3/AB3</f>
         <v>0.958295927527952</v>
       </c>
-      <c r="AF3" s="7">
+      <c r="AG3" s="8">
         <v>113661</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AH3" s="8">
         <v>3201</v>
       </c>
-      <c r="AH3" s="10">
+      <c r="AI3" s="11">
         <v>110460</v>
       </c>
-      <c r="AI3" s="14">
-        <f>AG3/AF3</f>
+      <c r="AJ3" s="15">
+        <f>AH3/AG3</f>
         <v>0.0281626943278697</v>
       </c>
-      <c r="AJ3" s="14">
-        <f>AH3/AF3</f>
+      <c r="AK3" s="15">
+        <f>AI3/AG3</f>
         <v>0.97183730567213</v>
       </c>
-      <c r="AK3" s="17">
-        <f>AA3-AF3</f>
+      <c r="AL3" s="22">
+        <f>AB3-AG3</f>
         <v>-15637</v>
       </c>
-      <c r="AL3" s="7">
+      <c r="AM3" s="16">
+        <f>(AL3-AL4)/AL4</f>
+        <v>-0.362015503875969</v>
+      </c>
+      <c r="AN3" s="8">
         <v>5180</v>
       </c>
-      <c r="AM3" s="10">
+      <c r="AO3" s="11">
         <v>2007</v>
       </c>
-      <c r="AN3" s="7">
+      <c r="AP3" s="8">
         <v>3173</v>
       </c>
-      <c r="AO3" s="14">
-        <f>AM3/AL3</f>
+      <c r="AQ3" s="15">
+        <f>AO3/AN3</f>
         <v>0.387451737451737</v>
       </c>
-      <c r="AP3" s="14">
-        <f>AN3/AL3</f>
+      <c r="AR3" s="15">
+        <f>AP3/AN3</f>
         <v>0.612548262548263</v>
       </c>
-      <c r="AQ3" s="10">
+      <c r="AS3" s="11">
         <v>2625</v>
       </c>
-      <c r="AR3" s="10">
+      <c r="AT3" s="11">
         <v>937</v>
       </c>
-      <c r="AS3" s="7">
+      <c r="AU3" s="8">
         <v>1688</v>
       </c>
-      <c r="AT3" s="14">
-        <f>AR3/AQ3</f>
+      <c r="AV3" s="15">
+        <f>AT3/AS3</f>
         <v>0.356952380952381</v>
       </c>
-      <c r="AU3" s="14">
-        <f>AS3/AQ3</f>
+      <c r="AW3" s="15">
+        <f>AU3/AS3</f>
         <v>0.643047619047619</v>
       </c>
-      <c r="AV3" s="19">
-        <f>AL3-AQ3</f>
+      <c r="AX3" s="25">
+        <f>AN3-AS3</f>
         <v>2555</v>
       </c>
+      <c r="AY3" s="27">
+        <f>(AX3-AX4)/AX4</f>
+        <v>0.143688451208594</v>
+      </c>
     </row>
-    <row r="4" spans="1:48">
-      <c r="A4" s="11">
+    <row r="4" spans="1:51">
+      <c r="A4" s="12">
         <v>2020</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>154310</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>28585</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="13">
         <v>182895</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="13">
         <v>82771</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>100124</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <f>B4/D4</f>
         <v>0.843708138549441</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="16">
         <f>C4/D4</f>
         <v>0.156291861450559</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="15">
         <f>E4/D4</f>
         <v>0.45256021214358</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="15">
         <f>F4/D4</f>
         <v>0.54743978785642</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="12">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="13">
         <v>245588</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="13">
         <v>35096</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="13">
         <v>210492</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="15">
         <f>V4/U4</f>
         <v>0.142906005179406</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="15">
         <f>W4/U4</f>
         <v>0.857093994820594</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="Z4" s="22">
         <f>D4-U4</f>
         <v>-62693</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="16">
+        <f>(Z4-Z5)/Z5</f>
+        <v>0.292852429266683</v>
+      </c>
+      <c r="AB4" s="13">
         <v>93489</v>
       </c>
-      <c r="AB4" s="17">
+      <c r="AC4" s="22">
         <v>3562</v>
       </c>
-      <c r="AC4" s="17">
+      <c r="AD4" s="22">
         <v>89927</v>
       </c>
-      <c r="AD4" s="15">
-        <f>AB4/AA4</f>
+      <c r="AE4" s="16">
+        <f>AC4/AB4</f>
         <v>0.038100739124389</v>
       </c>
-      <c r="AE4" s="15">
-        <f>AC4/AA4</f>
+      <c r="AF4" s="16">
+        <f>AD4/AB4</f>
         <v>0.961899260875611</v>
       </c>
-      <c r="AF4" s="12">
+      <c r="AG4" s="13">
         <v>117999</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AH4" s="11">
         <v>2715</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AI4" s="11">
         <v>115284</v>
       </c>
-      <c r="AI4" s="14">
-        <f>AG4/AF4</f>
+      <c r="AJ4" s="15">
+        <f>AH4/AG4</f>
         <v>0.0230086695649963</v>
       </c>
-      <c r="AJ4" s="14">
-        <f>AH4/AF4</f>
+      <c r="AK4" s="15">
+        <f>AI4/AG4</f>
         <v>0.976991330435004</v>
       </c>
-      <c r="AK4" s="17">
-        <f>AA4-AF4</f>
+      <c r="AL4" s="22">
+        <f>AB4-AG4</f>
         <v>-24510</v>
       </c>
-      <c r="AL4" s="10">
+      <c r="AM4" s="16">
+        <f>(AL4-AL5)/AL5</f>
+        <v>2.57862461673237</v>
+      </c>
+      <c r="AN4" s="11">
         <v>4778</v>
       </c>
-      <c r="AM4" s="12">
+      <c r="AO4" s="13">
         <v>1786</v>
       </c>
-      <c r="AN4" s="10">
+      <c r="AP4" s="11">
         <v>2992</v>
       </c>
-      <c r="AO4" s="14">
-        <f>AM4/AL4</f>
+      <c r="AQ4" s="15">
+        <f>AO4/AN4</f>
         <v>0.373796567601507</v>
       </c>
-      <c r="AP4" s="14">
-        <f>AN4/AL4</f>
+      <c r="AR4" s="15">
+        <f>AP4/AN4</f>
         <v>0.626203432398493</v>
       </c>
-      <c r="AQ4" s="12">
+      <c r="AS4" s="13">
         <v>2544</v>
       </c>
-      <c r="AR4" s="10">
+      <c r="AT4" s="11">
         <v>874</v>
       </c>
-      <c r="AS4" s="10">
+      <c r="AU4" s="11">
         <v>1670</v>
       </c>
-      <c r="AT4" s="14">
-        <f>AR4/AQ4</f>
+      <c r="AV4" s="15">
+        <f>AT4/AS4</f>
         <v>0.343553459119497</v>
       </c>
-      <c r="AU4" s="14">
-        <f>AS4/AQ4</f>
+      <c r="AW4" s="15">
+        <f>AU4/AS4</f>
         <v>0.656446540880503</v>
       </c>
-      <c r="AV4" s="19">
-        <f>AL4-AQ4</f>
+      <c r="AX4" s="25">
+        <f>AN4-AS4</f>
         <v>2234</v>
       </c>
+      <c r="AY4" s="27">
+        <f>(AX4-AX5)/AX5</f>
+        <v>0.335325762104005</v>
+      </c>
     </row>
-    <row r="5" spans="1:48">
-      <c r="A5" s="11">
+    <row r="5" spans="1:51">
+      <c r="A5" s="12">
         <v>2019</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>157992</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>32390</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>190382</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>89305</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>101077</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="16">
         <f>B5/D5</f>
         <v>0.82986836990892</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="16">
         <f>C5/D5</f>
         <v>0.17013163009108</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="15">
         <f>E5/D5</f>
         <v>0.46908321164816</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="15">
         <f>F5/D5</f>
         <v>0.53091678835184</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="10">
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="11">
         <v>238874</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="11">
         <v>35115</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W5" s="11">
         <v>203759</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="15">
         <f>V5/U5</f>
         <v>0.147002185252476</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="15">
         <f>W5/U5</f>
         <v>0.852997814747524</v>
       </c>
-      <c r="Z5" s="17">
+      <c r="Z5" s="22">
         <f>D5-U5</f>
         <v>-48492</v>
       </c>
-      <c r="AA5" s="17">
+      <c r="AA5" s="16">
+        <f>(Z5-Z6)/Z6</f>
+        <v>0.291260584757949</v>
+      </c>
+      <c r="AB5" s="22">
         <v>84516</v>
       </c>
-      <c r="AB5" s="17">
+      <c r="AC5" s="22">
         <v>4040</v>
       </c>
-      <c r="AC5" s="17">
+      <c r="AD5" s="22">
         <v>80476</v>
       </c>
-      <c r="AD5" s="15">
-        <f>AB5/AA5</f>
+      <c r="AE5" s="16">
+        <f>AC5/AB5</f>
         <v>0.0478015996970988</v>
       </c>
-      <c r="AE5" s="15">
-        <f>AC5/AA5</f>
+      <c r="AF5" s="16">
+        <f>AD5/AB5</f>
         <v>0.952198400302901</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AG5" s="13">
         <v>91365</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AH5" s="11">
         <v>3113</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AI5" s="11">
         <v>88252</v>
       </c>
-      <c r="AI5" s="14">
-        <f>AG5/AF5</f>
+      <c r="AJ5" s="15">
+        <f>AH5/AG5</f>
         <v>0.0340721282766924</v>
       </c>
-      <c r="AJ5" s="14">
-        <f>AH5/AF5</f>
+      <c r="AK5" s="15">
+        <f>AI5/AG5</f>
         <v>0.965927871723308</v>
       </c>
-      <c r="AK5" s="17">
-        <f>AA5-AF5</f>
+      <c r="AL5" s="22">
+        <f>AB5-AG5</f>
         <v>-6849</v>
       </c>
-      <c r="AL5" s="10">
+      <c r="AM5" s="16">
+        <f>(AL5-AL6)/AL6</f>
+        <v>0.328097731239092</v>
+      </c>
+      <c r="AN5" s="11">
         <v>3960</v>
       </c>
-      <c r="AM5" s="10">
+      <c r="AO5" s="11">
         <v>1636</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AP5" s="11">
         <v>2324</v>
       </c>
-      <c r="AO5" s="14">
-        <f>AM5/AL5</f>
+      <c r="AQ5" s="15">
+        <f>AO5/AN5</f>
         <v>0.413131313131313</v>
       </c>
-      <c r="AP5" s="14">
-        <f>AN5/AL5</f>
+      <c r="AR5" s="15">
+        <f>AP5/AN5</f>
         <v>0.586868686868687</v>
       </c>
-      <c r="AQ5" s="12">
+      <c r="AS5" s="13">
         <v>2287</v>
       </c>
-      <c r="AR5" s="10">
+      <c r="AT5" s="11">
         <v>987</v>
       </c>
-      <c r="AS5" s="10">
+      <c r="AU5" s="11">
         <v>1300</v>
       </c>
-      <c r="AT5" s="14">
-        <f>AR5/AQ5</f>
+      <c r="AV5" s="15">
+        <f>AT5/AS5</f>
         <v>0.431569742020114</v>
       </c>
-      <c r="AU5" s="14">
-        <f>AS5/AQ5</f>
+      <c r="AW5" s="15">
+        <f>AU5/AS5</f>
         <v>0.568430257979886</v>
       </c>
-      <c r="AV5" s="19">
-        <f>AL5-AQ5</f>
+      <c r="AX5" s="25">
+        <f>AN5-AS5</f>
         <v>1673</v>
       </c>
+      <c r="AY5" s="27">
+        <f>(AX5-AX6)/AX6</f>
+        <v>1.25775978407557</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1">
+    <row r="6" spans="1:51">
+      <c r="A6" s="12">
         <v>2018</v>
       </c>
+      <c r="B6" s="11">
+        <v>156401</v>
+      </c>
+      <c r="C6" s="11">
+        <v>26951</v>
+      </c>
+      <c r="D6" s="11">
+        <v>183352</v>
+      </c>
+      <c r="E6" s="11">
+        <v>85447</v>
+      </c>
+      <c r="F6" s="11">
+        <v>97905</v>
+      </c>
+      <c r="G6" s="16">
+        <f>B6/D6</f>
+        <v>0.853009511758803</v>
+      </c>
+      <c r="H6" s="16">
+        <f>C6/D6</f>
+        <v>0.146990488241197</v>
+      </c>
+      <c r="I6" s="15">
+        <f>E6/D6</f>
+        <v>0.466027095423011</v>
+      </c>
+      <c r="J6" s="15">
+        <f>F6/D6</f>
+        <v>0.533972904576989</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="11">
+        <v>220906</v>
+      </c>
+      <c r="V6" s="11">
+        <v>32708</v>
+      </c>
+      <c r="W6" s="11">
+        <v>188198</v>
+      </c>
+      <c r="X6" s="15">
+        <f>V6/U6</f>
+        <v>0.148062977012847</v>
+      </c>
+      <c r="Y6" s="15">
+        <f>W6/U6</f>
+        <v>0.851937022987153</v>
+      </c>
+      <c r="Z6" s="22">
+        <f>D6-U6</f>
+        <v>-37554</v>
+      </c>
+      <c r="AA6" s="16">
+        <f>(Z6-Z7)/Z7</f>
+        <v>0.22075220232097</v>
+      </c>
+      <c r="AB6" s="23">
+        <v>75405</v>
+      </c>
+      <c r="AC6" s="22">
+        <v>4033</v>
+      </c>
+      <c r="AD6" s="22">
+        <v>71372</v>
+      </c>
+      <c r="AE6" s="16">
+        <f>AC6/AB6</f>
+        <v>0.0534845169418474</v>
+      </c>
+      <c r="AF6" s="16">
+        <f>AD6/AB6</f>
+        <v>0.946515483058153</v>
+      </c>
+      <c r="AG6" s="23">
+        <v>80562</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>3089</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>77473</v>
+      </c>
+      <c r="AJ6" s="15">
+        <f>AH6/AG6</f>
+        <v>0.0383431394453961</v>
+      </c>
+      <c r="AK6" s="15">
+        <f>AI6/AG6</f>
+        <v>0.961656860554604</v>
+      </c>
+      <c r="AL6" s="22">
+        <f>AB6-AG6</f>
+        <v>-5157</v>
+      </c>
+      <c r="AM6" s="16">
+        <f>(AL6-AL7)/AL7</f>
+        <v>-7.76771653543307</v>
+      </c>
+      <c r="AN6" s="11">
+        <v>2900</v>
+      </c>
+      <c r="AO6" s="11">
+        <v>1325</v>
+      </c>
+      <c r="AP6" s="11">
+        <v>1575</v>
+      </c>
+      <c r="AQ6" s="15">
+        <f>AO6/AN6</f>
+        <v>0.456896551724138</v>
+      </c>
+      <c r="AR6" s="15">
+        <f>AP6/AN6</f>
+        <v>0.543103448275862</v>
+      </c>
+      <c r="AS6" s="11">
+        <v>2159</v>
+      </c>
+      <c r="AT6" s="11">
+        <v>1025</v>
+      </c>
+      <c r="AU6" s="11">
+        <v>1134</v>
+      </c>
+      <c r="AV6" s="15">
+        <f>AT6/AS6</f>
+        <v>0.474756831866605</v>
+      </c>
+      <c r="AW6" s="15">
+        <f>AU6/AS6</f>
+        <v>0.525243168133395</v>
+      </c>
+      <c r="AX6" s="25">
+        <f>AN6-AS6</f>
+        <v>741</v>
+      </c>
+      <c r="AY6" s="27">
+        <f>(AX6-AX7)/AX7</f>
+        <v>0.304577464788732</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1">
+    <row r="7" spans="1:51">
+      <c r="A7" s="12">
         <v>2017</v>
+      </c>
+      <c r="B7" s="11">
+        <v>144360</v>
+      </c>
+      <c r="C7" s="11">
+        <v>28207</v>
+      </c>
+      <c r="D7" s="11">
+        <v>172567</v>
+      </c>
+      <c r="E7" s="11">
+        <v>81119</v>
+      </c>
+      <c r="F7" s="11">
+        <v>91448</v>
+      </c>
+      <c r="G7" s="16">
+        <f>B7/D7</f>
+        <v>0.836544646427185</v>
+      </c>
+      <c r="H7" s="16">
+        <f>C7/D7</f>
+        <v>0.163455353572815</v>
+      </c>
+      <c r="I7" s="15">
+        <f>E7/D7</f>
+        <v>0.470072493582203</v>
+      </c>
+      <c r="J7" s="15">
+        <f>F7/D7</f>
+        <v>0.529927506417797</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="11">
+        <v>203330</v>
+      </c>
+      <c r="V7" s="11">
+        <v>29859</v>
+      </c>
+      <c r="W7" s="11">
+        <v>173471</v>
+      </c>
+      <c r="X7" s="15">
+        <f>V7/U7</f>
+        <v>0.146849948359809</v>
+      </c>
+      <c r="Y7" s="15">
+        <f>W7/U7</f>
+        <v>0.853150051640191</v>
+      </c>
+      <c r="Z7" s="22">
+        <f>D7-U7</f>
+        <v>-30763</v>
+      </c>
+      <c r="AA7" s="16" t="e">
+        <f>(Z7-Z8)/Z8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB7" s="22">
+        <v>61462</v>
+      </c>
+      <c r="AC7" s="22">
+        <v>3825</v>
+      </c>
+      <c r="AD7" s="22">
+        <v>57637</v>
+      </c>
+      <c r="AE7" s="16">
+        <f>AC7/AB7</f>
+        <v>0.0622335752172074</v>
+      </c>
+      <c r="AF7" s="16">
+        <f>AD7/AB7</f>
+        <v>0.937766424782793</v>
+      </c>
+      <c r="AG7" s="22">
+        <v>60700</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>2684</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>58016</v>
+      </c>
+      <c r="AJ7" s="15">
+        <f>AH7/AG7</f>
+        <v>0.0442174629324547</v>
+      </c>
+      <c r="AK7" s="15">
+        <f>AI7/AG7</f>
+        <v>0.955782537067545</v>
+      </c>
+      <c r="AL7" s="22">
+        <f>AB7-AG7</f>
+        <v>762</v>
+      </c>
+      <c r="AM7" s="16" t="e">
+        <f>(AL7-AL8)/AL8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN7" s="11">
+        <v>2579</v>
+      </c>
+      <c r="AO7" s="11">
+        <v>1244</v>
+      </c>
+      <c r="AP7" s="11">
+        <v>1335</v>
+      </c>
+      <c r="AQ7" s="15">
+        <f>AO7/AN7</f>
+        <v>0.482357502908104</v>
+      </c>
+      <c r="AR7" s="15">
+        <f>AP7/AN7</f>
+        <v>0.517642497091896</v>
+      </c>
+      <c r="AS7" s="11">
+        <v>2011</v>
+      </c>
+      <c r="AT7" s="11">
+        <v>766</v>
+      </c>
+      <c r="AU7" s="11">
+        <v>1245</v>
+      </c>
+      <c r="AV7" s="15">
+        <f>AT7/AS7</f>
+        <v>0.380905022376927</v>
+      </c>
+      <c r="AW7" s="15">
+        <f>AU7/AS7</f>
+        <v>0.619094977623073</v>
+      </c>
+      <c r="AX7" s="25">
+        <f>AN7-AS7</f>
+        <v>568</v>
+      </c>
+      <c r="AY7" s="27" t="e">
+        <f>(AX7-AX8)/AX8</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:Y1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="Z1:AA2"/>
+    <mergeCell ref="AL1:AM2"/>
+    <mergeCell ref="AX1:AY2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/财务/国家基本面.xlsx
+++ b/我的创作/财务/国家基本面.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="26500" windowHeight="11500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="资产负债" sheetId="1" r:id="rId1"/>
+    <sheet name="现金流量" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -126,9 +126,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -138,19 +143,12 @@
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <name val="宋体"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -491,7 +489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -509,50 +507,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -670,7 +624,7 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,7 +657,7 @@
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,19 +675,19 @@
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,7 +723,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,13 +741,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,11 +756,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,64 +782,70 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1240,17 +1200,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA4" sqref="AA4"/>
+      <selection pane="bottomRight" activeCell="AY9" sqref="AY9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="5.85714285714286" style="1" customWidth="1"/>
     <col min="2" max="6" width="19.7142857142857" style="2" customWidth="1"/>
@@ -1303,67 +1263,67 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="19" t="s">
         <v>5</v>
       </c>
       <c r="AA1" s="19"/>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
       <c r="AE1" s="7"/>
       <c r="AF1" s="7"/>
-      <c r="AG1" s="17" t="s">
+      <c r="AG1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
       <c r="AL1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="AM1" s="15"/>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
       <c r="AQ1" s="15"/>
       <c r="AR1" s="15"/>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
       <c r="AV1" s="15"/>
       <c r="AW1" s="15"/>
-      <c r="AX1" s="25" t="s">
+      <c r="AX1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AY1" s="26"/>
+      <c r="AY1" s="27"/>
     </row>
     <row r="2" spans="1:51">
       <c r="A2" s="7"/>
       <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -1378,43 +1338,43 @@
       <c r="J2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="X2" s="15" t="s">
@@ -1423,8 +1383,8 @@
       <c r="Y2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="21"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
       <c r="AB2" s="22" t="s">
         <v>29</v>
       </c>
@@ -1443,10 +1403,10 @@
       <c r="AG2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AH2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="AJ2" s="15" t="s">
@@ -1457,13 +1417,13 @@
       </c>
       <c r="AL2" s="22"/>
       <c r="AM2" s="15"/>
-      <c r="AN2" s="11" t="s">
+      <c r="AN2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AO2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AP2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="AQ2" s="15" t="s">
@@ -1472,13 +1432,13 @@
       <c r="AR2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AS2" s="11" t="s">
+      <c r="AS2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AT2" s="11" t="s">
+      <c r="AT2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AU2" s="11" t="s">
+      <c r="AU2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="AV2" s="15" t="s">
@@ -1487,11 +1447,11 @@
       <c r="AW2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="27"/>
     </row>
     <row r="3" spans="1:51">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>2021</v>
       </c>
       <c r="B3" s="8">
@@ -1500,7 +1460,7 @@
       <c r="C3" s="8">
         <v>29808</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>202539</v>
       </c>
       <c r="E3" s="8">
@@ -1517,25 +1477,25 @@
         <f>C3/D3</f>
         <v>0.147171655829248</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="18">
         <f>E3/D3</f>
         <v>0.451577227101941</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="18">
         <f>F3/D3</f>
         <v>0.548422772898059</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="11">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="12">
         <v>246322</v>
       </c>
       <c r="V3" s="8">
@@ -1544,15 +1504,15 @@
       <c r="W3" s="8">
         <v>211272</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="18">
         <f>V3/U3</f>
         <v>0.142293420806911</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Y3" s="18">
         <f>W3/U3</f>
         <v>0.857706579193089</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="23">
         <f>D3-U3</f>
         <v>-43783</v>
       </c>
@@ -1583,18 +1543,18 @@
       <c r="AH3" s="8">
         <v>3201</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3" s="12">
         <v>110460</v>
       </c>
-      <c r="AJ3" s="15">
+      <c r="AJ3" s="18">
         <f>AH3/AG3</f>
         <v>0.0281626943278697</v>
       </c>
-      <c r="AK3" s="15">
+      <c r="AK3" s="18">
         <f>AI3/AG3</f>
         <v>0.97183730567213</v>
       </c>
-      <c r="AL3" s="22">
+      <c r="AL3" s="23">
         <f>AB3-AG3</f>
         <v>-15637</v>
       </c>
@@ -1605,54 +1565,54 @@
       <c r="AN3" s="8">
         <v>5180</v>
       </c>
-      <c r="AO3" s="11">
+      <c r="AO3" s="12">
         <v>2007</v>
       </c>
       <c r="AP3" s="8">
         <v>3173</v>
       </c>
-      <c r="AQ3" s="15">
+      <c r="AQ3" s="18">
         <f>AO3/AN3</f>
         <v>0.387451737451737</v>
       </c>
-      <c r="AR3" s="15">
+      <c r="AR3" s="18">
         <f>AP3/AN3</f>
         <v>0.612548262548263</v>
       </c>
-      <c r="AS3" s="11">
+      <c r="AS3" s="12">
         <v>2625</v>
       </c>
-      <c r="AT3" s="11">
+      <c r="AT3" s="12">
         <v>937</v>
       </c>
       <c r="AU3" s="8">
         <v>1688</v>
       </c>
-      <c r="AV3" s="15">
+      <c r="AV3" s="18">
         <f>AT3/AS3</f>
         <v>0.356952380952381</v>
       </c>
-      <c r="AW3" s="15">
+      <c r="AW3" s="18">
         <f>AU3/AS3</f>
         <v>0.643047619047619</v>
       </c>
-      <c r="AX3" s="25">
+      <c r="AX3" s="28">
         <f>AN3-AS3</f>
         <v>2555</v>
       </c>
-      <c r="AY3" s="27">
+      <c r="AY3" s="29">
         <f>(AX3-AX4)/AX4</f>
         <v>0.143688451208594</v>
       </c>
     </row>
     <row r="4" spans="1:51">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>2020</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <v>154310</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <v>28585</v>
       </c>
       <c r="D4" s="13">
@@ -1661,7 +1621,7 @@
       <c r="E4" s="13">
         <v>82771</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <v>100124</v>
       </c>
       <c r="G4" s="16">
@@ -1672,24 +1632,24 @@
         <f>C4/D4</f>
         <v>0.156291861450559</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="18">
         <f>E4/D4</f>
         <v>0.45256021214358</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="18">
         <f>F4/D4</f>
         <v>0.54743978785642</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
       <c r="U4" s="13">
         <v>245588</v>
       </c>
@@ -1699,15 +1659,15 @@
       <c r="W4" s="13">
         <v>210492</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="18">
         <f>V4/U4</f>
         <v>0.142906005179406</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Y4" s="18">
         <f>W4/U4</f>
         <v>0.857093994820594</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="Z4" s="23">
         <f>D4-U4</f>
         <v>-62693</v>
       </c>
@@ -1718,10 +1678,10 @@
       <c r="AB4" s="13">
         <v>93489</v>
       </c>
-      <c r="AC4" s="22">
+      <c r="AC4" s="23">
         <v>3562</v>
       </c>
-      <c r="AD4" s="22">
+      <c r="AD4" s="23">
         <v>89927</v>
       </c>
       <c r="AE4" s="16">
@@ -1735,21 +1695,21 @@
       <c r="AG4" s="13">
         <v>117999</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4" s="12">
         <v>2715</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI4" s="12">
         <v>115284</v>
       </c>
-      <c r="AJ4" s="15">
+      <c r="AJ4" s="18">
         <f>AH4/AG4</f>
         <v>0.0230086695649963</v>
       </c>
-      <c r="AK4" s="15">
+      <c r="AK4" s="18">
         <f>AI4/AG4</f>
         <v>0.976991330435004</v>
       </c>
-      <c r="AL4" s="22">
+      <c r="AL4" s="23">
         <f>AB4-AG4</f>
         <v>-24510</v>
       </c>
@@ -1757,66 +1717,66 @@
         <f>(AL4-AL5)/AL5</f>
         <v>2.57862461673237</v>
       </c>
-      <c r="AN4" s="11">
+      <c r="AN4" s="12">
         <v>4778</v>
       </c>
       <c r="AO4" s="13">
         <v>1786</v>
       </c>
-      <c r="AP4" s="11">
+      <c r="AP4" s="12">
         <v>2992</v>
       </c>
-      <c r="AQ4" s="15">
+      <c r="AQ4" s="18">
         <f>AO4/AN4</f>
         <v>0.373796567601507</v>
       </c>
-      <c r="AR4" s="15">
+      <c r="AR4" s="18">
         <f>AP4/AN4</f>
         <v>0.626203432398493</v>
       </c>
       <c r="AS4" s="13">
         <v>2544</v>
       </c>
-      <c r="AT4" s="11">
+      <c r="AT4" s="12">
         <v>874</v>
       </c>
-      <c r="AU4" s="11">
+      <c r="AU4" s="12">
         <v>1670</v>
       </c>
-      <c r="AV4" s="15">
+      <c r="AV4" s="18">
         <f>AT4/AS4</f>
         <v>0.343553459119497</v>
       </c>
-      <c r="AW4" s="15">
+      <c r="AW4" s="18">
         <f>AU4/AS4</f>
         <v>0.656446540880503</v>
       </c>
-      <c r="AX4" s="25">
+      <c r="AX4" s="28">
         <f>AN4-AS4</f>
         <v>2234</v>
       </c>
-      <c r="AY4" s="27">
+      <c r="AY4" s="29">
         <f>(AX4-AX5)/AX5</f>
         <v>0.335325762104005</v>
       </c>
     </row>
     <row r="5" spans="1:51">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>2019</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>157992</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>32390</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>190382</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="12">
         <v>89305</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>101077</v>
       </c>
       <c r="G5" s="16">
@@ -1827,42 +1787,42 @@
         <f>C5/D5</f>
         <v>0.17013163009108</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="18">
         <f>E5/D5</f>
         <v>0.46908321164816</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="18">
         <f>F5/D5</f>
         <v>0.53091678835184</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="11">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="12">
         <v>238874</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="12">
         <v>35115</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="12">
         <v>203759</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="18">
         <f>V5/U5</f>
         <v>0.147002185252476</v>
       </c>
-      <c r="Y5" s="15">
+      <c r="Y5" s="18">
         <f>W5/U5</f>
         <v>0.852997814747524</v>
       </c>
-      <c r="Z5" s="22">
+      <c r="Z5" s="23">
         <f>D5-U5</f>
         <v>-48492</v>
       </c>
@@ -1870,13 +1830,13 @@
         <f>(Z5-Z6)/Z6</f>
         <v>0.291260584757949</v>
       </c>
-      <c r="AB5" s="22">
+      <c r="AB5" s="23">
         <v>84516</v>
       </c>
-      <c r="AC5" s="22">
+      <c r="AC5" s="23">
         <v>4040</v>
       </c>
-      <c r="AD5" s="22">
+      <c r="AD5" s="23">
         <v>80476</v>
       </c>
       <c r="AE5" s="16">
@@ -1890,21 +1850,21 @@
       <c r="AG5" s="13">
         <v>91365</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5" s="12">
         <v>3113</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="AI5" s="12">
         <v>88252</v>
       </c>
-      <c r="AJ5" s="15">
+      <c r="AJ5" s="18">
         <f>AH5/AG5</f>
         <v>0.0340721282766924</v>
       </c>
-      <c r="AK5" s="15">
+      <c r="AK5" s="18">
         <f>AI5/AG5</f>
         <v>0.965927871723308</v>
       </c>
-      <c r="AL5" s="22">
+      <c r="AL5" s="23">
         <f>AB5-AG5</f>
         <v>-6849</v>
       </c>
@@ -1912,66 +1872,66 @@
         <f>(AL5-AL6)/AL6</f>
         <v>0.328097731239092</v>
       </c>
-      <c r="AN5" s="11">
+      <c r="AN5" s="12">
         <v>3960</v>
       </c>
-      <c r="AO5" s="11">
+      <c r="AO5" s="12">
         <v>1636</v>
       </c>
-      <c r="AP5" s="11">
+      <c r="AP5" s="12">
         <v>2324</v>
       </c>
-      <c r="AQ5" s="15">
+      <c r="AQ5" s="18">
         <f>AO5/AN5</f>
         <v>0.413131313131313</v>
       </c>
-      <c r="AR5" s="15">
+      <c r="AR5" s="18">
         <f>AP5/AN5</f>
         <v>0.586868686868687</v>
       </c>
       <c r="AS5" s="13">
         <v>2287</v>
       </c>
-      <c r="AT5" s="11">
+      <c r="AT5" s="12">
         <v>987</v>
       </c>
-      <c r="AU5" s="11">
+      <c r="AU5" s="12">
         <v>1300</v>
       </c>
-      <c r="AV5" s="15">
+      <c r="AV5" s="18">
         <f>AT5/AS5</f>
         <v>0.431569742020114</v>
       </c>
-      <c r="AW5" s="15">
+      <c r="AW5" s="18">
         <f>AU5/AS5</f>
         <v>0.568430257979886</v>
       </c>
-      <c r="AX5" s="25">
+      <c r="AX5" s="28">
         <f>AN5-AS5</f>
         <v>1673</v>
       </c>
-      <c r="AY5" s="27">
+      <c r="AY5" s="29">
         <f>(AX5-AX6)/AX6</f>
         <v>1.25775978407557</v>
       </c>
     </row>
     <row r="6" spans="1:51">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>2018</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>156401</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>26951</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>183352</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <v>85447</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="12">
         <v>97905</v>
       </c>
       <c r="G6" s="16">
@@ -1982,42 +1942,42 @@
         <f>C6/D6</f>
         <v>0.146990488241197</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="18">
         <f>E6/D6</f>
         <v>0.466027095423011</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="18">
         <f>F6/D6</f>
         <v>0.533972904576989</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="11">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="12">
         <v>220906</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="12">
         <v>32708</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="12">
         <v>188198</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="18">
         <f>V6/U6</f>
         <v>0.148062977012847</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Y6" s="18">
         <f>W6/U6</f>
         <v>0.851937022987153</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="23">
         <f>D6-U6</f>
         <v>-37554</v>
       </c>
@@ -2025,13 +1985,13 @@
         <f>(Z6-Z7)/Z7</f>
         <v>0.22075220232097</v>
       </c>
-      <c r="AB6" s="23">
+      <c r="AB6" s="24">
         <v>75405</v>
       </c>
-      <c r="AC6" s="22">
+      <c r="AC6" s="23">
         <v>4033</v>
       </c>
-      <c r="AD6" s="22">
+      <c r="AD6" s="23">
         <v>71372</v>
       </c>
       <c r="AE6" s="16">
@@ -2042,24 +2002,24 @@
         <f>AD6/AB6</f>
         <v>0.946515483058153</v>
       </c>
-      <c r="AG6" s="23">
+      <c r="AG6" s="24">
         <v>80562</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH6" s="12">
         <v>3089</v>
       </c>
-      <c r="AI6" s="11">
+      <c r="AI6" s="12">
         <v>77473</v>
       </c>
-      <c r="AJ6" s="15">
+      <c r="AJ6" s="18">
         <f>AH6/AG6</f>
         <v>0.0383431394453961</v>
       </c>
-      <c r="AK6" s="15">
+      <c r="AK6" s="18">
         <f>AI6/AG6</f>
         <v>0.961656860554604</v>
       </c>
-      <c r="AL6" s="22">
+      <c r="AL6" s="23">
         <f>AB6-AG6</f>
         <v>-5157</v>
       </c>
@@ -2067,66 +2027,66 @@
         <f>(AL6-AL7)/AL7</f>
         <v>-7.76771653543307</v>
       </c>
-      <c r="AN6" s="11">
+      <c r="AN6" s="12">
         <v>2900</v>
       </c>
-      <c r="AO6" s="11">
+      <c r="AO6" s="12">
         <v>1325</v>
       </c>
-      <c r="AP6" s="11">
+      <c r="AP6" s="12">
         <v>1575</v>
       </c>
-      <c r="AQ6" s="15">
+      <c r="AQ6" s="18">
         <f>AO6/AN6</f>
         <v>0.456896551724138</v>
       </c>
-      <c r="AR6" s="15">
+      <c r="AR6" s="18">
         <f>AP6/AN6</f>
         <v>0.543103448275862</v>
       </c>
-      <c r="AS6" s="11">
+      <c r="AS6" s="12">
         <v>2159</v>
       </c>
-      <c r="AT6" s="11">
+      <c r="AT6" s="12">
         <v>1025</v>
       </c>
-      <c r="AU6" s="11">
+      <c r="AU6" s="12">
         <v>1134</v>
       </c>
-      <c r="AV6" s="15">
+      <c r="AV6" s="18">
         <f>AT6/AS6</f>
         <v>0.474756831866605</v>
       </c>
-      <c r="AW6" s="15">
+      <c r="AW6" s="18">
         <f>AU6/AS6</f>
         <v>0.525243168133395</v>
       </c>
-      <c r="AX6" s="25">
+      <c r="AX6" s="28">
         <f>AN6-AS6</f>
         <v>741</v>
       </c>
-      <c r="AY6" s="27">
+      <c r="AY6" s="29">
         <f>(AX6-AX7)/AX7</f>
         <v>0.304577464788732</v>
       </c>
     </row>
     <row r="7" spans="1:51">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>2017</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>144360</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>28207</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>172567</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="12">
         <v>81119</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="12">
         <v>91448</v>
       </c>
       <c r="G7" s="16">
@@ -2137,56 +2097,56 @@
         <f>C7/D7</f>
         <v>0.163455353572815</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="18">
         <f>E7/D7</f>
         <v>0.470072493582203</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="18">
         <f>F7/D7</f>
         <v>0.529927506417797</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="11">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="12">
         <v>203330</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="12">
         <v>29859</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="12">
         <v>173471</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="18">
         <f>V7/U7</f>
         <v>0.146849948359809</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Y7" s="18">
         <f>W7/U7</f>
         <v>0.853150051640191</v>
       </c>
-      <c r="Z7" s="22">
+      <c r="Z7" s="23">
         <f>D7-U7</f>
         <v>-30763</v>
       </c>
-      <c r="AA7" s="16" t="e">
+      <c r="AA7" s="16">
         <f>(Z7-Z8)/Z8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB7" s="22">
+        <v>0.0874544876100251</v>
+      </c>
+      <c r="AB7" s="23">
         <v>61462</v>
       </c>
-      <c r="AC7" s="22">
+      <c r="AC7" s="23">
         <v>3825</v>
       </c>
-      <c r="AD7" s="22">
+      <c r="AD7" s="23">
         <v>57637</v>
       </c>
       <c r="AE7" s="16">
@@ -2197,73 +2157,374 @@
         <f>AD7/AB7</f>
         <v>0.937766424782793</v>
       </c>
-      <c r="AG7" s="22">
+      <c r="AG7" s="23">
         <v>60700</v>
       </c>
-      <c r="AH7" s="11">
+      <c r="AH7" s="12">
         <v>2684</v>
       </c>
-      <c r="AI7" s="11">
+      <c r="AI7" s="12">
         <v>58016</v>
       </c>
-      <c r="AJ7" s="15">
+      <c r="AJ7" s="18">
         <f>AH7/AG7</f>
         <v>0.0442174629324547</v>
       </c>
-      <c r="AK7" s="15">
+      <c r="AK7" s="18">
         <f>AI7/AG7</f>
         <v>0.955782537067545</v>
       </c>
-      <c r="AL7" s="22">
+      <c r="AL7" s="23">
         <f>AB7-AG7</f>
         <v>762</v>
       </c>
-      <c r="AM7" s="16" t="e">
+      <c r="AM7" s="16">
         <f>(AL7-AL8)/AL8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN7" s="11">
+        <v>-4.27038626609442</v>
+      </c>
+      <c r="AN7" s="12">
         <v>2579</v>
       </c>
-      <c r="AO7" s="11">
+      <c r="AO7" s="12">
         <v>1244</v>
       </c>
-      <c r="AP7" s="11">
+      <c r="AP7" s="12">
         <v>1335</v>
       </c>
-      <c r="AQ7" s="15">
+      <c r="AQ7" s="18">
         <f>AO7/AN7</f>
         <v>0.482357502908104</v>
       </c>
-      <c r="AR7" s="15">
+      <c r="AR7" s="18">
         <f>AP7/AN7</f>
         <v>0.517642497091896</v>
       </c>
-      <c r="AS7" s="11">
+      <c r="AS7" s="12">
         <v>2011</v>
       </c>
-      <c r="AT7" s="11">
+      <c r="AT7" s="12">
         <v>766</v>
       </c>
-      <c r="AU7" s="11">
+      <c r="AU7" s="12">
         <v>1245</v>
       </c>
-      <c r="AV7" s="15">
+      <c r="AV7" s="18">
         <f>AT7/AS7</f>
         <v>0.380905022376927</v>
       </c>
-      <c r="AW7" s="15">
+      <c r="AW7" s="18">
         <f>AU7/AS7</f>
         <v>0.619094977623073</v>
       </c>
-      <c r="AX7" s="25">
+      <c r="AX7" s="28">
         <f>AN7-AS7</f>
         <v>568</v>
       </c>
-      <c r="AY7" s="27" t="e">
+      <c r="AY7" s="29">
         <f>(AX7-AX8)/AX8</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>0.317865429234339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51">
+      <c r="A8" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="12">
+        <v>130354</v>
+      </c>
+      <c r="C8" s="12">
+        <v>29198</v>
+      </c>
+      <c r="D8" s="12">
+        <v>159552</v>
+      </c>
+      <c r="E8" s="12">
+        <v>72357</v>
+      </c>
+      <c r="F8" s="12">
+        <v>87195</v>
+      </c>
+      <c r="G8" s="16">
+        <f>B8/D8</f>
+        <v>0.817000100280786</v>
+      </c>
+      <c r="H8" s="16">
+        <f>C8/D8</f>
+        <v>0.182999899719214</v>
+      </c>
+      <c r="I8" s="18">
+        <f>E8/D8</f>
+        <v>0.453501052948255</v>
+      </c>
+      <c r="J8" s="18">
+        <f>F8/D8</f>
+        <v>0.546498947051745</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="12">
+        <v>187841</v>
+      </c>
+      <c r="V8" s="12">
+        <v>27404</v>
+      </c>
+      <c r="W8" s="12">
+        <v>160437</v>
+      </c>
+      <c r="X8" s="18">
+        <f>V8/U8</f>
+        <v>0.14588934258229</v>
+      </c>
+      <c r="Y8" s="18">
+        <f>W8/U8</f>
+        <v>0.85411065741771</v>
+      </c>
+      <c r="Z8" s="23">
+        <f>D8-U8</f>
+        <v>-28289</v>
+      </c>
+      <c r="AA8" s="16">
+        <f>(Z8-Z9)/Z9</f>
+        <v>0.201180416967432</v>
+      </c>
+      <c r="AB8" s="23">
+        <v>46619</v>
+      </c>
+      <c r="AC8" s="23">
+        <v>4178</v>
+      </c>
+      <c r="AD8" s="23">
+        <v>42441</v>
+      </c>
+      <c r="AE8" s="16">
+        <f>AC8/AB8</f>
+        <v>0.0896201119715138</v>
+      </c>
+      <c r="AF8" s="16">
+        <f>AD8/AB8</f>
+        <v>0.910379888028486</v>
+      </c>
+      <c r="AG8" s="23">
+        <v>46852</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>2890</v>
+      </c>
+      <c r="AI8" s="12">
+        <v>43962</v>
+      </c>
+      <c r="AJ8" s="18">
+        <f>AH8/AG8</f>
+        <v>0.0616835994194485</v>
+      </c>
+      <c r="AK8" s="18">
+        <f>AI8/AG8</f>
+        <v>0.938316400580552</v>
+      </c>
+      <c r="AL8" s="23">
+        <f>AB8-AG8</f>
+        <v>-233</v>
+      </c>
+      <c r="AM8" s="16">
+        <f>(AL8-AL9)/AL9</f>
+        <v>5.85294117647059</v>
+      </c>
+      <c r="AN8" s="12">
+        <v>2602</v>
+      </c>
+      <c r="AO8" s="12">
+        <v>1430</v>
+      </c>
+      <c r="AP8" s="12">
+        <v>1172</v>
+      </c>
+      <c r="AQ8" s="18">
+        <f>AO8/AN8</f>
+        <v>0.549577248270561</v>
+      </c>
+      <c r="AR8" s="18">
+        <f>AP8/AN8</f>
+        <v>0.450422751729439</v>
+      </c>
+      <c r="AS8" s="12">
+        <v>2171</v>
+      </c>
+      <c r="AT8" s="12">
+        <v>937</v>
+      </c>
+      <c r="AU8" s="12">
+        <v>1234</v>
+      </c>
+      <c r="AV8" s="18">
+        <f>AT8/AS8</f>
+        <v>0.431598341777983</v>
+      </c>
+      <c r="AW8" s="18">
+        <f>AU8/AS8</f>
+        <v>0.568401658222017</v>
+      </c>
+      <c r="AX8" s="28">
+        <f>AN8-AS8</f>
+        <v>431</v>
+      </c>
+      <c r="AY8" s="29">
+        <f>(AX8-AX9)/AX9</f>
+        <v>-0.103950103950104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51">
+      <c r="A9" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="12">
+        <v>124892</v>
+      </c>
+      <c r="C9" s="12">
+        <v>27325</v>
+      </c>
+      <c r="D9" s="12">
+        <v>152217</v>
+      </c>
+      <c r="E9" s="12">
+        <v>69234</v>
+      </c>
+      <c r="F9" s="12">
+        <v>82983</v>
+      </c>
+      <c r="G9" s="16">
+        <f>B9/D9</f>
+        <v>0.82048654223904</v>
+      </c>
+      <c r="H9" s="16">
+        <f>C9/D9</f>
+        <v>0.17951345776096</v>
+      </c>
+      <c r="I9" s="18">
+        <f>E9/D9</f>
+        <v>0.454837501724512</v>
+      </c>
+      <c r="J9" s="18">
+        <f>F9/D9</f>
+        <v>0.545162498275488</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="20">
+        <v>175768</v>
+      </c>
+      <c r="V9" s="21">
+        <v>25549</v>
+      </c>
+      <c r="W9" s="12">
+        <v>150219</v>
+      </c>
+      <c r="X9" s="18">
+        <f>V9/U9</f>
+        <v>0.145356378863047</v>
+      </c>
+      <c r="Y9" s="18">
+        <f>W9/U9</f>
+        <v>0.854643621136953</v>
+      </c>
+      <c r="Z9" s="23">
+        <f>D9-U9</f>
+        <v>-23551</v>
+      </c>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23">
+        <v>42330</v>
+      </c>
+      <c r="AC9" s="23">
+        <v>4112</v>
+      </c>
+      <c r="AD9" s="23">
+        <v>38218</v>
+      </c>
+      <c r="AE9" s="16">
+        <f>AC9/AB9</f>
+        <v>0.0971415072052918</v>
+      </c>
+      <c r="AF9" s="16">
+        <f>AD9/AB9</f>
+        <v>0.902858492794708</v>
+      </c>
+      <c r="AG9" s="23">
+        <v>42364</v>
+      </c>
+      <c r="AH9" s="12">
+        <v>3024</v>
+      </c>
+      <c r="AI9" s="12">
+        <v>39340</v>
+      </c>
+      <c r="AJ9" s="18">
+        <f>AH9/AG9</f>
+        <v>0.0713813615333774</v>
+      </c>
+      <c r="AK9" s="18">
+        <f>AI9/AG9</f>
+        <v>0.928618638466623</v>
+      </c>
+      <c r="AL9" s="23">
+        <f>AB9-AG9</f>
+        <v>-34</v>
+      </c>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="12">
+        <v>2560</v>
+      </c>
+      <c r="AO9" s="12">
+        <v>1613</v>
+      </c>
+      <c r="AP9" s="12">
+        <v>947</v>
+      </c>
+      <c r="AQ9" s="18">
+        <f>AO9/AN9</f>
+        <v>0.630078125</v>
+      </c>
+      <c r="AR9" s="18">
+        <f>AP9/AN9</f>
+        <v>0.369921875</v>
+      </c>
+      <c r="AS9" s="12">
+        <v>2079</v>
+      </c>
+      <c r="AT9" s="12">
+        <v>1235</v>
+      </c>
+      <c r="AU9" s="12">
+        <v>844</v>
+      </c>
+      <c r="AV9" s="18">
+        <f>AT9/AS9</f>
+        <v>0.594035594035594</v>
+      </c>
+      <c r="AW9" s="18">
+        <f>AU9/AS9</f>
+        <v>0.405964405964406</v>
+      </c>
+      <c r="AX9" s="28">
+        <f>AN9-AS9</f>
+        <v>481</v>
+      </c>
+      <c r="AY9" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/我的创作/财务/国家基本面.xlsx
+++ b/我的创作/财务/国家基本面.xlsx
@@ -1203,11 +1203,11 @@
   <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AY9" sqref="AY9"/>
+      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/我的创作/财务/国家基本面.xlsx
+++ b/我的创作/财务/国家基本面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11500" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="资产负债" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+  <si>
+    <t>年份</t>
+  </si>
   <si>
     <t>资产</t>
   </si>
@@ -23,7 +26,7 @@
     <t>负债</t>
   </si>
   <si>
-    <t>年份</t>
+    <t>GDP增速</t>
   </si>
   <si>
     <t>一般公共预算收入</t>
@@ -112,10 +115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -165,37 +168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -212,11 +184,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,66 +297,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,49 +313,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,126 +488,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,11 +525,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,26 +566,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,17 +603,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,142 +618,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,9 +782,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -800,9 +800,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -812,15 +809,9 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -836,13 +827,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -850,6 +838,9 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1175,20 +1166,122 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="16" style="5"/>
+    <col min="3" max="3" width="9.14285714285714" style="5"/>
+    <col min="4" max="4" width="12.7857142857143" style="21"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1143670</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24">
+        <f>(B2-B3)/B3</f>
+        <v>0.12836151926809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1013567</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24">
+        <f t="shared" ref="D3:D8" si="0">(B3-B4)/B4</f>
+        <v>0.0274217827402523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="22">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="25">
+        <v>986515</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24">
+        <f t="shared" si="0"/>
+        <v>0.0731375934017999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="22">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="23">
+        <v>919281</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24">
+        <f t="shared" si="0"/>
+        <v>0.120044495671054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="22">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="23">
+        <v>820754</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24">
+        <f t="shared" si="0"/>
+        <v>0.103779662042672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="22">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="23">
+        <v>743585</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.0791420676523688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="22">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="23">
+        <v>689052</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -1202,8 +1295,8 @@
   <sheetPr/>
   <dimension ref="A1:AY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1233,1298 +1326,1298 @@
     <col min="45" max="47" width="12.0714285714286" style="2"/>
     <col min="48" max="49" width="12.7857142857143" style="3"/>
     <col min="50" max="50" width="12.0714285714286" style="5"/>
-    <col min="51" max="51" width="12.7857142857143" style="6"/>
+    <col min="51" max="51" width="12.7857142857143" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
-      <c r="A1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="19" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="19" t="s">
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="10" t="s">
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="10" t="s">
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="AY1" s="27"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY1" s="13"/>
     </row>
     <row r="2" spans="1:51">
-      <c r="A2" s="7"/>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="M2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="O2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="Q2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="S2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="T2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" s="10" t="s">
+      <c r="U2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="15" t="s">
+      <c r="W2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="22" t="s">
+      <c r="Y2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AD2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AF2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AI2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AK2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AQ2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AR2" s="15" t="s">
+      <c r="AP2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AS2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AR2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AV2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW2" s="15" t="s">
+      <c r="AU2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="27"/>
+      <c r="AW2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="13"/>
     </row>
     <row r="3" spans="1:51">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2021</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>172731</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>29808</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>202539</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>91462</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>111077</v>
       </c>
-      <c r="G3" s="16">
-        <f>B3/D3</f>
+      <c r="G3" s="14">
+        <f t="shared" ref="G3:G9" si="0">B3/D3</f>
         <v>0.852828344170752</v>
       </c>
-      <c r="H3" s="16">
-        <f>C3/D3</f>
+      <c r="H3" s="14">
+        <f t="shared" ref="H3:H9" si="1">C3/D3</f>
         <v>0.147171655829248</v>
       </c>
-      <c r="I3" s="18">
-        <f>E3/D3</f>
+      <c r="I3" s="15">
+        <f t="shared" ref="I3:I9" si="2">E3/D3</f>
         <v>0.451577227101941</v>
       </c>
-      <c r="J3" s="18">
-        <f>F3/D3</f>
+      <c r="J3" s="15">
+        <f t="shared" ref="J3:J9" si="3">F3/D3</f>
         <v>0.548422772898059</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="12">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="11">
         <v>246322</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="7">
         <v>35050</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="7">
         <v>211272</v>
       </c>
-      <c r="X3" s="18">
-        <f>V3/U3</f>
+      <c r="X3" s="15">
+        <f t="shared" ref="X3:X9" si="4">V3/U3</f>
         <v>0.142293420806911</v>
       </c>
-      <c r="Y3" s="18">
-        <f>W3/U3</f>
+      <c r="Y3" s="15">
+        <f t="shared" ref="Y3:Y9" si="5">W3/U3</f>
         <v>0.857706579193089</v>
       </c>
-      <c r="Z3" s="23">
-        <f>D3-U3</f>
+      <c r="Z3" s="19">
+        <f t="shared" ref="Z3:Z9" si="6">D3-U3</f>
         <v>-43783</v>
       </c>
-      <c r="AA3" s="16">
-        <f>(Z3-Z4)/Z4</f>
+      <c r="AA3" s="14">
+        <f t="shared" ref="AA3:AA8" si="7">(Z3-Z4)/Z4</f>
         <v>-0.301628570972836</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AB3" s="7">
         <v>98024</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AC3" s="7">
         <v>4088</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AD3" s="7">
         <v>93936</v>
       </c>
-      <c r="AE3" s="16">
-        <f>AC3/AB3</f>
+      <c r="AE3" s="14">
+        <f t="shared" ref="AE3:AE9" si="8">AC3/AB3</f>
         <v>0.0417040724720477</v>
       </c>
-      <c r="AF3" s="16">
-        <f>AD3/AB3</f>
+      <c r="AF3" s="14">
+        <f t="shared" ref="AF3:AF9" si="9">AD3/AB3</f>
         <v>0.958295927527952</v>
       </c>
-      <c r="AG3" s="8">
+      <c r="AG3" s="7">
         <v>113661</v>
       </c>
-      <c r="AH3" s="8">
+      <c r="AH3" s="7">
         <v>3201</v>
       </c>
-      <c r="AI3" s="12">
+      <c r="AI3" s="11">
         <v>110460</v>
       </c>
-      <c r="AJ3" s="18">
-        <f>AH3/AG3</f>
+      <c r="AJ3" s="15">
+        <f t="shared" ref="AJ3:AJ9" si="10">AH3/AG3</f>
         <v>0.0281626943278697</v>
       </c>
-      <c r="AK3" s="18">
-        <f>AI3/AG3</f>
+      <c r="AK3" s="15">
+        <f t="shared" ref="AK3:AK9" si="11">AI3/AG3</f>
         <v>0.97183730567213</v>
       </c>
-      <c r="AL3" s="23">
-        <f>AB3-AG3</f>
+      <c r="AL3" s="19">
+        <f t="shared" ref="AL3:AL9" si="12">AB3-AG3</f>
         <v>-15637</v>
       </c>
-      <c r="AM3" s="16">
-        <f>(AL3-AL4)/AL4</f>
+      <c r="AM3" s="14">
+        <f t="shared" ref="AM3:AM8" si="13">(AL3-AL4)/AL4</f>
         <v>-0.362015503875969</v>
       </c>
-      <c r="AN3" s="8">
+      <c r="AN3" s="7">
         <v>5180</v>
       </c>
-      <c r="AO3" s="12">
+      <c r="AO3" s="11">
         <v>2007</v>
       </c>
-      <c r="AP3" s="8">
+      <c r="AP3" s="7">
         <v>3173</v>
       </c>
-      <c r="AQ3" s="18">
-        <f>AO3/AN3</f>
+      <c r="AQ3" s="15">
+        <f t="shared" ref="AQ3:AQ9" si="14">AO3/AN3</f>
         <v>0.387451737451737</v>
       </c>
-      <c r="AR3" s="18">
-        <f>AP3/AN3</f>
+      <c r="AR3" s="15">
+        <f t="shared" ref="AR3:AR9" si="15">AP3/AN3</f>
         <v>0.612548262548263</v>
       </c>
-      <c r="AS3" s="12">
+      <c r="AS3" s="11">
         <v>2625</v>
       </c>
-      <c r="AT3" s="12">
+      <c r="AT3" s="11">
         <v>937</v>
       </c>
-      <c r="AU3" s="8">
+      <c r="AU3" s="7">
         <v>1688</v>
       </c>
-      <c r="AV3" s="18">
-        <f>AT3/AS3</f>
+      <c r="AV3" s="15">
+        <f t="shared" ref="AV3:AV9" si="16">AT3/AS3</f>
         <v>0.356952380952381</v>
       </c>
-      <c r="AW3" s="18">
-        <f>AU3/AS3</f>
+      <c r="AW3" s="15">
+        <f t="shared" ref="AW3:AW9" si="17">AU3/AS3</f>
         <v>0.643047619047619</v>
       </c>
-      <c r="AX3" s="28">
-        <f>AN3-AS3</f>
+      <c r="AX3" s="11">
+        <f t="shared" ref="AX3:AX9" si="18">AN3-AS3</f>
         <v>2555</v>
       </c>
-      <c r="AY3" s="29">
-        <f>(AX3-AX4)/AX4</f>
+      <c r="AY3" s="15">
+        <f t="shared" ref="AY3:AY8" si="19">(AX3-AX4)/AX4</f>
         <v>0.143688451208594</v>
       </c>
     </row>
     <row r="4" spans="1:51">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>2020</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>154310</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>28585</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="7">
         <v>182895</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="7">
         <v>82771</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>100124</v>
       </c>
-      <c r="G4" s="16">
-        <f>B4/D4</f>
+      <c r="G4" s="14">
+        <f t="shared" si="0"/>
         <v>0.843708138549441</v>
       </c>
-      <c r="H4" s="16">
-        <f>C4/D4</f>
+      <c r="H4" s="14">
+        <f t="shared" si="1"/>
         <v>0.156291861450559</v>
       </c>
-      <c r="I4" s="18">
-        <f>E4/D4</f>
+      <c r="I4" s="15">
+        <f t="shared" si="2"/>
         <v>0.45256021214358</v>
       </c>
-      <c r="J4" s="18">
-        <f>F4/D4</f>
+      <c r="J4" s="15">
+        <f t="shared" si="3"/>
         <v>0.54743978785642</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="13">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="7">
         <v>245588</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="7">
         <v>35096</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="7">
         <v>210492</v>
       </c>
-      <c r="X4" s="18">
-        <f>V4/U4</f>
+      <c r="X4" s="15">
+        <f t="shared" si="4"/>
         <v>0.142906005179406</v>
       </c>
-      <c r="Y4" s="18">
-        <f>W4/U4</f>
+      <c r="Y4" s="15">
+        <f t="shared" si="5"/>
         <v>0.857093994820594</v>
       </c>
-      <c r="Z4" s="23">
-        <f>D4-U4</f>
+      <c r="Z4" s="19">
+        <f t="shared" si="6"/>
         <v>-62693</v>
       </c>
-      <c r="AA4" s="16">
-        <f>(Z4-Z5)/Z5</f>
+      <c r="AA4" s="14">
+        <f t="shared" si="7"/>
         <v>0.292852429266683</v>
       </c>
-      <c r="AB4" s="13">
+      <c r="AB4" s="7">
         <v>93489</v>
       </c>
-      <c r="AC4" s="23">
+      <c r="AC4" s="19">
         <v>3562</v>
       </c>
-      <c r="AD4" s="23">
+      <c r="AD4" s="19">
         <v>89927</v>
       </c>
-      <c r="AE4" s="16">
-        <f>AC4/AB4</f>
+      <c r="AE4" s="14">
+        <f t="shared" si="8"/>
         <v>0.038100739124389</v>
       </c>
-      <c r="AF4" s="16">
-        <f>AD4/AB4</f>
+      <c r="AF4" s="14">
+        <f t="shared" si="9"/>
         <v>0.961899260875611</v>
       </c>
-      <c r="AG4" s="13">
+      <c r="AG4" s="7">
         <v>117999</v>
       </c>
-      <c r="AH4" s="12">
+      <c r="AH4" s="11">
         <v>2715</v>
       </c>
-      <c r="AI4" s="12">
+      <c r="AI4" s="11">
         <v>115284</v>
       </c>
-      <c r="AJ4" s="18">
-        <f>AH4/AG4</f>
+      <c r="AJ4" s="15">
+        <f t="shared" si="10"/>
         <v>0.0230086695649963</v>
       </c>
-      <c r="AK4" s="18">
-        <f>AI4/AG4</f>
+      <c r="AK4" s="15">
+        <f t="shared" si="11"/>
         <v>0.976991330435004</v>
       </c>
-      <c r="AL4" s="23">
-        <f>AB4-AG4</f>
+      <c r="AL4" s="19">
+        <f t="shared" si="12"/>
         <v>-24510</v>
       </c>
-      <c r="AM4" s="16">
-        <f>(AL4-AL5)/AL5</f>
+      <c r="AM4" s="14">
+        <f t="shared" si="13"/>
         <v>2.57862461673237</v>
       </c>
-      <c r="AN4" s="12">
+      <c r="AN4" s="11">
         <v>4778</v>
       </c>
-      <c r="AO4" s="13">
+      <c r="AO4" s="7">
         <v>1786</v>
       </c>
-      <c r="AP4" s="12">
+      <c r="AP4" s="11">
         <v>2992</v>
       </c>
-      <c r="AQ4" s="18">
-        <f>AO4/AN4</f>
+      <c r="AQ4" s="15">
+        <f t="shared" si="14"/>
         <v>0.373796567601507</v>
       </c>
-      <c r="AR4" s="18">
-        <f>AP4/AN4</f>
+      <c r="AR4" s="15">
+        <f t="shared" si="15"/>
         <v>0.626203432398493</v>
       </c>
-      <c r="AS4" s="13">
+      <c r="AS4" s="7">
         <v>2544</v>
       </c>
-      <c r="AT4" s="12">
+      <c r="AT4" s="11">
         <v>874</v>
       </c>
-      <c r="AU4" s="12">
+      <c r="AU4" s="11">
         <v>1670</v>
       </c>
-      <c r="AV4" s="18">
-        <f>AT4/AS4</f>
+      <c r="AV4" s="15">
+        <f t="shared" si="16"/>
         <v>0.343553459119497</v>
       </c>
-      <c r="AW4" s="18">
-        <f>AU4/AS4</f>
+      <c r="AW4" s="15">
+        <f t="shared" si="17"/>
         <v>0.656446540880503</v>
       </c>
-      <c r="AX4" s="28">
-        <f>AN4-AS4</f>
+      <c r="AX4" s="11">
+        <f t="shared" si="18"/>
         <v>2234</v>
       </c>
-      <c r="AY4" s="29">
-        <f>(AX4-AX5)/AX5</f>
+      <c r="AY4" s="15">
+        <f t="shared" si="19"/>
         <v>0.335325762104005</v>
       </c>
     </row>
     <row r="5" spans="1:51">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>2019</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>157992</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>32390</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>190382</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>89305</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>101077</v>
       </c>
-      <c r="G5" s="16">
-        <f>B5/D5</f>
+      <c r="G5" s="14">
+        <f t="shared" si="0"/>
         <v>0.82986836990892</v>
       </c>
-      <c r="H5" s="16">
-        <f>C5/D5</f>
+      <c r="H5" s="14">
+        <f t="shared" si="1"/>
         <v>0.17013163009108</v>
       </c>
-      <c r="I5" s="18">
-        <f>E5/D5</f>
+      <c r="I5" s="15">
+        <f t="shared" si="2"/>
         <v>0.46908321164816</v>
       </c>
-      <c r="J5" s="18">
-        <f>F5/D5</f>
+      <c r="J5" s="15">
+        <f t="shared" si="3"/>
         <v>0.53091678835184</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="12">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="11">
         <v>238874</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="11">
         <v>35115</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="11">
         <v>203759</v>
       </c>
-      <c r="X5" s="18">
-        <f>V5/U5</f>
+      <c r="X5" s="15">
+        <f t="shared" si="4"/>
         <v>0.147002185252476</v>
       </c>
-      <c r="Y5" s="18">
-        <f>W5/U5</f>
+      <c r="Y5" s="15">
+        <f t="shared" si="5"/>
         <v>0.852997814747524</v>
       </c>
-      <c r="Z5" s="23">
-        <f>D5-U5</f>
+      <c r="Z5" s="19">
+        <f t="shared" si="6"/>
         <v>-48492</v>
       </c>
-      <c r="AA5" s="16">
-        <f>(Z5-Z6)/Z6</f>
+      <c r="AA5" s="14">
+        <f t="shared" si="7"/>
         <v>0.291260584757949</v>
       </c>
-      <c r="AB5" s="23">
+      <c r="AB5" s="19">
         <v>84516</v>
       </c>
-      <c r="AC5" s="23">
+      <c r="AC5" s="19">
         <v>4040</v>
       </c>
-      <c r="AD5" s="23">
+      <c r="AD5" s="19">
         <v>80476</v>
       </c>
-      <c r="AE5" s="16">
-        <f>AC5/AB5</f>
+      <c r="AE5" s="14">
+        <f t="shared" si="8"/>
         <v>0.0478015996970988</v>
       </c>
-      <c r="AF5" s="16">
-        <f>AD5/AB5</f>
+      <c r="AF5" s="14">
+        <f t="shared" si="9"/>
         <v>0.952198400302901</v>
       </c>
-      <c r="AG5" s="13">
+      <c r="AG5" s="7">
         <v>91365</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AH5" s="11">
         <v>3113</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AI5" s="11">
         <v>88252</v>
       </c>
-      <c r="AJ5" s="18">
-        <f>AH5/AG5</f>
+      <c r="AJ5" s="15">
+        <f t="shared" si="10"/>
         <v>0.0340721282766924</v>
       </c>
-      <c r="AK5" s="18">
-        <f>AI5/AG5</f>
+      <c r="AK5" s="15">
+        <f t="shared" si="11"/>
         <v>0.965927871723308</v>
       </c>
-      <c r="AL5" s="23">
-        <f>AB5-AG5</f>
+      <c r="AL5" s="19">
+        <f t="shared" si="12"/>
         <v>-6849</v>
       </c>
-      <c r="AM5" s="16">
-        <f>(AL5-AL6)/AL6</f>
+      <c r="AM5" s="14">
+        <f t="shared" si="13"/>
         <v>0.328097731239092</v>
       </c>
-      <c r="AN5" s="12">
+      <c r="AN5" s="11">
         <v>3960</v>
       </c>
-      <c r="AO5" s="12">
+      <c r="AO5" s="11">
         <v>1636</v>
       </c>
-      <c r="AP5" s="12">
+      <c r="AP5" s="11">
         <v>2324</v>
       </c>
-      <c r="AQ5" s="18">
-        <f>AO5/AN5</f>
+      <c r="AQ5" s="15">
+        <f t="shared" si="14"/>
         <v>0.413131313131313</v>
       </c>
-      <c r="AR5" s="18">
-        <f>AP5/AN5</f>
+      <c r="AR5" s="15">
+        <f t="shared" si="15"/>
         <v>0.586868686868687</v>
       </c>
-      <c r="AS5" s="13">
+      <c r="AS5" s="7">
         <v>2287</v>
       </c>
-      <c r="AT5" s="12">
+      <c r="AT5" s="11">
         <v>987</v>
       </c>
-      <c r="AU5" s="12">
+      <c r="AU5" s="11">
         <v>1300</v>
       </c>
-      <c r="AV5" s="18">
-        <f>AT5/AS5</f>
+      <c r="AV5" s="15">
+        <f t="shared" si="16"/>
         <v>0.431569742020114</v>
       </c>
-      <c r="AW5" s="18">
-        <f>AU5/AS5</f>
+      <c r="AW5" s="15">
+        <f t="shared" si="17"/>
         <v>0.568430257979886</v>
       </c>
-      <c r="AX5" s="28">
-        <f>AN5-AS5</f>
+      <c r="AX5" s="11">
+        <f t="shared" si="18"/>
         <v>1673</v>
       </c>
-      <c r="AY5" s="29">
-        <f>(AX5-AX6)/AX6</f>
+      <c r="AY5" s="15">
+        <f t="shared" si="19"/>
         <v>1.25775978407557</v>
       </c>
     </row>
     <row r="6" spans="1:51">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>2018</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>156401</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>26951</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>183352</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>85447</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>97905</v>
       </c>
-      <c r="G6" s="16">
-        <f>B6/D6</f>
+      <c r="G6" s="14">
+        <f t="shared" si="0"/>
         <v>0.853009511758803</v>
       </c>
-      <c r="H6" s="16">
-        <f>C6/D6</f>
+      <c r="H6" s="14">
+        <f t="shared" si="1"/>
         <v>0.146990488241197</v>
       </c>
-      <c r="I6" s="18">
-        <f>E6/D6</f>
+      <c r="I6" s="15">
+        <f t="shared" si="2"/>
         <v>0.466027095423011</v>
       </c>
-      <c r="J6" s="18">
-        <f>F6/D6</f>
+      <c r="J6" s="15">
+        <f t="shared" si="3"/>
         <v>0.533972904576989</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="12">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="11">
         <v>220906</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="11">
         <v>32708</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="11">
         <v>188198</v>
       </c>
-      <c r="X6" s="18">
-        <f>V6/U6</f>
+      <c r="X6" s="15">
+        <f t="shared" si="4"/>
         <v>0.148062977012847</v>
       </c>
-      <c r="Y6" s="18">
-        <f>W6/U6</f>
+      <c r="Y6" s="15">
+        <f t="shared" si="5"/>
         <v>0.851937022987153</v>
       </c>
-      <c r="Z6" s="23">
-        <f>D6-U6</f>
+      <c r="Z6" s="19">
+        <f t="shared" si="6"/>
         <v>-37554</v>
       </c>
-      <c r="AA6" s="16">
-        <f>(Z6-Z7)/Z7</f>
+      <c r="AA6" s="14">
+        <f t="shared" si="7"/>
         <v>0.22075220232097</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AB6" s="20">
         <v>75405</v>
       </c>
-      <c r="AC6" s="23">
+      <c r="AC6" s="19">
         <v>4033</v>
       </c>
-      <c r="AD6" s="23">
+      <c r="AD6" s="19">
         <v>71372</v>
       </c>
-      <c r="AE6" s="16">
-        <f>AC6/AB6</f>
+      <c r="AE6" s="14">
+        <f t="shared" si="8"/>
         <v>0.0534845169418474</v>
       </c>
-      <c r="AF6" s="16">
-        <f>AD6/AB6</f>
+      <c r="AF6" s="14">
+        <f t="shared" si="9"/>
         <v>0.946515483058153</v>
       </c>
-      <c r="AG6" s="24">
+      <c r="AG6" s="20">
         <v>80562</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AH6" s="11">
         <v>3089</v>
       </c>
-      <c r="AI6" s="12">
+      <c r="AI6" s="11">
         <v>77473</v>
       </c>
-      <c r="AJ6" s="18">
-        <f>AH6/AG6</f>
+      <c r="AJ6" s="15">
+        <f t="shared" si="10"/>
         <v>0.0383431394453961</v>
       </c>
-      <c r="AK6" s="18">
-        <f>AI6/AG6</f>
+      <c r="AK6" s="15">
+        <f t="shared" si="11"/>
         <v>0.961656860554604</v>
       </c>
-      <c r="AL6" s="23">
-        <f>AB6-AG6</f>
+      <c r="AL6" s="19">
+        <f t="shared" si="12"/>
         <v>-5157</v>
       </c>
-      <c r="AM6" s="16">
-        <f>(AL6-AL7)/AL7</f>
+      <c r="AM6" s="14">
+        <f t="shared" si="13"/>
         <v>-7.76771653543307</v>
       </c>
-      <c r="AN6" s="12">
+      <c r="AN6" s="11">
         <v>2900</v>
       </c>
-      <c r="AO6" s="12">
+      <c r="AO6" s="11">
         <v>1325</v>
       </c>
-      <c r="AP6" s="12">
+      <c r="AP6" s="11">
         <v>1575</v>
       </c>
-      <c r="AQ6" s="18">
-        <f>AO6/AN6</f>
+      <c r="AQ6" s="15">
+        <f t="shared" si="14"/>
         <v>0.456896551724138</v>
       </c>
-      <c r="AR6" s="18">
-        <f>AP6/AN6</f>
+      <c r="AR6" s="15">
+        <f t="shared" si="15"/>
         <v>0.543103448275862</v>
       </c>
-      <c r="AS6" s="12">
+      <c r="AS6" s="11">
         <v>2159</v>
       </c>
-      <c r="AT6" s="12">
+      <c r="AT6" s="11">
         <v>1025</v>
       </c>
-      <c r="AU6" s="12">
+      <c r="AU6" s="11">
         <v>1134</v>
       </c>
-      <c r="AV6" s="18">
-        <f>AT6/AS6</f>
+      <c r="AV6" s="15">
+        <f t="shared" si="16"/>
         <v>0.474756831866605</v>
       </c>
-      <c r="AW6" s="18">
-        <f>AU6/AS6</f>
+      <c r="AW6" s="15">
+        <f t="shared" si="17"/>
         <v>0.525243168133395</v>
       </c>
-      <c r="AX6" s="28">
-        <f>AN6-AS6</f>
+      <c r="AX6" s="11">
+        <f t="shared" si="18"/>
         <v>741</v>
       </c>
-      <c r="AY6" s="29">
-        <f>(AX6-AX7)/AX7</f>
+      <c r="AY6" s="15">
+        <f t="shared" si="19"/>
         <v>0.304577464788732</v>
       </c>
     </row>
     <row r="7" spans="1:51">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>2017</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>144360</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>28207</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>172567</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>81119</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>91448</v>
       </c>
-      <c r="G7" s="16">
-        <f>B7/D7</f>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
         <v>0.836544646427185</v>
       </c>
-      <c r="H7" s="16">
-        <f>C7/D7</f>
+      <c r="H7" s="14">
+        <f t="shared" si="1"/>
         <v>0.163455353572815</v>
       </c>
-      <c r="I7" s="18">
-        <f>E7/D7</f>
+      <c r="I7" s="15">
+        <f t="shared" si="2"/>
         <v>0.470072493582203</v>
       </c>
-      <c r="J7" s="18">
-        <f>F7/D7</f>
+      <c r="J7" s="15">
+        <f t="shared" si="3"/>
         <v>0.529927506417797</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="12">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="11">
         <v>203330</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="11">
         <v>29859</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="11">
         <v>173471</v>
       </c>
-      <c r="X7" s="18">
-        <f>V7/U7</f>
+      <c r="X7" s="15">
+        <f t="shared" si="4"/>
         <v>0.146849948359809</v>
       </c>
-      <c r="Y7" s="18">
-        <f>W7/U7</f>
+      <c r="Y7" s="15">
+        <f t="shared" si="5"/>
         <v>0.853150051640191</v>
       </c>
-      <c r="Z7" s="23">
-        <f>D7-U7</f>
+      <c r="Z7" s="19">
+        <f t="shared" si="6"/>
         <v>-30763</v>
       </c>
-      <c r="AA7" s="16">
-        <f>(Z7-Z8)/Z8</f>
+      <c r="AA7" s="14">
+        <f t="shared" si="7"/>
         <v>0.0874544876100251</v>
       </c>
-      <c r="AB7" s="23">
+      <c r="AB7" s="19">
         <v>61462</v>
       </c>
-      <c r="AC7" s="23">
+      <c r="AC7" s="19">
         <v>3825</v>
       </c>
-      <c r="AD7" s="23">
+      <c r="AD7" s="19">
         <v>57637</v>
       </c>
-      <c r="AE7" s="16">
-        <f>AC7/AB7</f>
+      <c r="AE7" s="14">
+        <f t="shared" si="8"/>
         <v>0.0622335752172074</v>
       </c>
-      <c r="AF7" s="16">
-        <f>AD7/AB7</f>
+      <c r="AF7" s="14">
+        <f t="shared" si="9"/>
         <v>0.937766424782793</v>
       </c>
-      <c r="AG7" s="23">
+      <c r="AG7" s="19">
         <v>60700</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AH7" s="11">
         <v>2684</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AI7" s="11">
         <v>58016</v>
       </c>
-      <c r="AJ7" s="18">
-        <f>AH7/AG7</f>
+      <c r="AJ7" s="15">
+        <f t="shared" si="10"/>
         <v>0.0442174629324547</v>
       </c>
-      <c r="AK7" s="18">
-        <f>AI7/AG7</f>
+      <c r="AK7" s="15">
+        <f t="shared" si="11"/>
         <v>0.955782537067545</v>
       </c>
-      <c r="AL7" s="23">
-        <f>AB7-AG7</f>
+      <c r="AL7" s="19">
+        <f t="shared" si="12"/>
         <v>762</v>
       </c>
-      <c r="AM7" s="16">
-        <f>(AL7-AL8)/AL8</f>
+      <c r="AM7" s="14">
+        <f t="shared" si="13"/>
         <v>-4.27038626609442</v>
       </c>
-      <c r="AN7" s="12">
+      <c r="AN7" s="11">
         <v>2579</v>
       </c>
-      <c r="AO7" s="12">
+      <c r="AO7" s="11">
         <v>1244</v>
       </c>
-      <c r="AP7" s="12">
+      <c r="AP7" s="11">
         <v>1335</v>
       </c>
-      <c r="AQ7" s="18">
-        <f>AO7/AN7</f>
+      <c r="AQ7" s="15">
+        <f t="shared" si="14"/>
         <v>0.482357502908104</v>
       </c>
-      <c r="AR7" s="18">
-        <f>AP7/AN7</f>
+      <c r="AR7" s="15">
+        <f t="shared" si="15"/>
         <v>0.517642497091896</v>
       </c>
-      <c r="AS7" s="12">
+      <c r="AS7" s="11">
         <v>2011</v>
       </c>
-      <c r="AT7" s="12">
+      <c r="AT7" s="11">
         <v>766</v>
       </c>
-      <c r="AU7" s="12">
+      <c r="AU7" s="11">
         <v>1245</v>
       </c>
-      <c r="AV7" s="18">
-        <f>AT7/AS7</f>
+      <c r="AV7" s="15">
+        <f t="shared" si="16"/>
         <v>0.380905022376927</v>
       </c>
-      <c r="AW7" s="18">
-        <f>AU7/AS7</f>
+      <c r="AW7" s="15">
+        <f t="shared" si="17"/>
         <v>0.619094977623073</v>
       </c>
-      <c r="AX7" s="28">
-        <f>AN7-AS7</f>
+      <c r="AX7" s="11">
+        <f t="shared" si="18"/>
         <v>568</v>
       </c>
-      <c r="AY7" s="29">
-        <f>(AX7-AX8)/AX8</f>
+      <c r="AY7" s="15">
+        <f t="shared" si="19"/>
         <v>0.317865429234339</v>
       </c>
     </row>
     <row r="8" spans="1:51">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>2016</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>130354</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>29198</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>159552</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>72357</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>87195</v>
       </c>
-      <c r="G8" s="16">
-        <f>B8/D8</f>
+      <c r="G8" s="14">
+        <f t="shared" si="0"/>
         <v>0.817000100280786</v>
       </c>
-      <c r="H8" s="16">
-        <f>C8/D8</f>
+      <c r="H8" s="14">
+        <f t="shared" si="1"/>
         <v>0.182999899719214</v>
       </c>
-      <c r="I8" s="18">
-        <f>E8/D8</f>
+      <c r="I8" s="15">
+        <f t="shared" si="2"/>
         <v>0.453501052948255</v>
       </c>
-      <c r="J8" s="18">
-        <f>F8/D8</f>
+      <c r="J8" s="15">
+        <f t="shared" si="3"/>
         <v>0.546498947051745</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="12">
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="11">
         <v>187841</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="11">
         <v>27404</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="11">
         <v>160437</v>
       </c>
-      <c r="X8" s="18">
-        <f>V8/U8</f>
+      <c r="X8" s="15">
+        <f t="shared" si="4"/>
         <v>0.14588934258229</v>
       </c>
-      <c r="Y8" s="18">
-        <f>W8/U8</f>
+      <c r="Y8" s="15">
+        <f t="shared" si="5"/>
         <v>0.85411065741771</v>
       </c>
-      <c r="Z8" s="23">
-        <f>D8-U8</f>
+      <c r="Z8" s="19">
+        <f t="shared" si="6"/>
         <v>-28289</v>
       </c>
-      <c r="AA8" s="16">
-        <f>(Z8-Z9)/Z9</f>
+      <c r="AA8" s="14">
+        <f t="shared" si="7"/>
         <v>0.201180416967432</v>
       </c>
-      <c r="AB8" s="23">
+      <c r="AB8" s="19">
         <v>46619</v>
       </c>
-      <c r="AC8" s="23">
+      <c r="AC8" s="19">
         <v>4178</v>
       </c>
-      <c r="AD8" s="23">
+      <c r="AD8" s="19">
         <v>42441</v>
       </c>
-      <c r="AE8" s="16">
-        <f>AC8/AB8</f>
+      <c r="AE8" s="14">
+        <f t="shared" si="8"/>
         <v>0.0896201119715138</v>
       </c>
-      <c r="AF8" s="16">
-        <f>AD8/AB8</f>
+      <c r="AF8" s="14">
+        <f t="shared" si="9"/>
         <v>0.910379888028486</v>
       </c>
-      <c r="AG8" s="23">
+      <c r="AG8" s="19">
         <v>46852</v>
       </c>
-      <c r="AH8" s="12">
+      <c r="AH8" s="11">
         <v>2890</v>
       </c>
-      <c r="AI8" s="12">
+      <c r="AI8" s="11">
         <v>43962</v>
       </c>
-      <c r="AJ8" s="18">
-        <f>AH8/AG8</f>
+      <c r="AJ8" s="15">
+        <f t="shared" si="10"/>
         <v>0.0616835994194485</v>
       </c>
-      <c r="AK8" s="18">
-        <f>AI8/AG8</f>
+      <c r="AK8" s="15">
+        <f t="shared" si="11"/>
         <v>0.938316400580552</v>
       </c>
-      <c r="AL8" s="23">
-        <f>AB8-AG8</f>
+      <c r="AL8" s="19">
+        <f t="shared" si="12"/>
         <v>-233</v>
       </c>
-      <c r="AM8" s="16">
-        <f>(AL8-AL9)/AL9</f>
+      <c r="AM8" s="14">
+        <f t="shared" si="13"/>
         <v>5.85294117647059</v>
       </c>
-      <c r="AN8" s="12">
+      <c r="AN8" s="11">
         <v>2602</v>
       </c>
-      <c r="AO8" s="12">
+      <c r="AO8" s="11">
         <v>1430</v>
       </c>
-      <c r="AP8" s="12">
+      <c r="AP8" s="11">
         <v>1172</v>
       </c>
-      <c r="AQ8" s="18">
-        <f>AO8/AN8</f>
+      <c r="AQ8" s="15">
+        <f t="shared" si="14"/>
         <v>0.549577248270561</v>
       </c>
-      <c r="AR8" s="18">
-        <f>AP8/AN8</f>
+      <c r="AR8" s="15">
+        <f t="shared" si="15"/>
         <v>0.450422751729439</v>
       </c>
-      <c r="AS8" s="12">
+      <c r="AS8" s="11">
         <v>2171</v>
       </c>
-      <c r="AT8" s="12">
+      <c r="AT8" s="11">
         <v>937</v>
       </c>
-      <c r="AU8" s="12">
+      <c r="AU8" s="11">
         <v>1234</v>
       </c>
-      <c r="AV8" s="18">
-        <f>AT8/AS8</f>
+      <c r="AV8" s="15">
+        <f t="shared" si="16"/>
         <v>0.431598341777983</v>
       </c>
-      <c r="AW8" s="18">
-        <f>AU8/AS8</f>
+      <c r="AW8" s="15">
+        <f t="shared" si="17"/>
         <v>0.568401658222017</v>
       </c>
-      <c r="AX8" s="28">
-        <f>AN8-AS8</f>
+      <c r="AX8" s="11">
+        <f t="shared" si="18"/>
         <v>431</v>
       </c>
-      <c r="AY8" s="29">
-        <f>(AX8-AX9)/AX9</f>
+      <c r="AY8" s="15">
+        <f t="shared" si="19"/>
         <v>-0.103950103950104</v>
       </c>
     </row>
     <row r="9" spans="1:51">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>2015</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>124892</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>27325</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>152217</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>69234</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>82983</v>
       </c>
-      <c r="G9" s="16">
-        <f>B9/D9</f>
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
         <v>0.82048654223904</v>
       </c>
-      <c r="H9" s="16">
-        <f>C9/D9</f>
+      <c r="H9" s="14">
+        <f t="shared" si="1"/>
         <v>0.17951345776096</v>
       </c>
-      <c r="I9" s="18">
-        <f>E9/D9</f>
+      <c r="I9" s="15">
+        <f t="shared" si="2"/>
         <v>0.454837501724512</v>
       </c>
-      <c r="J9" s="18">
-        <f>F9/D9</f>
+      <c r="J9" s="15">
+        <f t="shared" si="3"/>
         <v>0.545162498275488</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="20">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="16">
         <v>175768</v>
       </c>
-      <c r="V9" s="21">
+      <c r="V9" s="17">
         <v>25549</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="11">
         <v>150219</v>
       </c>
-      <c r="X9" s="18">
-        <f>V9/U9</f>
+      <c r="X9" s="15">
+        <f t="shared" si="4"/>
         <v>0.145356378863047</v>
       </c>
-      <c r="Y9" s="18">
-        <f>W9/U9</f>
+      <c r="Y9" s="15">
+        <f t="shared" si="5"/>
         <v>0.854643621136953</v>
       </c>
-      <c r="Z9" s="23">
-        <f>D9-U9</f>
+      <c r="Z9" s="19">
+        <f t="shared" si="6"/>
         <v>-23551</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23">
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19">
         <v>42330</v>
       </c>
-      <c r="AC9" s="23">
+      <c r="AC9" s="19">
         <v>4112</v>
       </c>
-      <c r="AD9" s="23">
+      <c r="AD9" s="19">
         <v>38218</v>
       </c>
-      <c r="AE9" s="16">
-        <f>AC9/AB9</f>
+      <c r="AE9" s="14">
+        <f t="shared" si="8"/>
         <v>0.0971415072052918</v>
       </c>
-      <c r="AF9" s="16">
-        <f>AD9/AB9</f>
+      <c r="AF9" s="14">
+        <f t="shared" si="9"/>
         <v>0.902858492794708</v>
       </c>
-      <c r="AG9" s="23">
+      <c r="AG9" s="19">
         <v>42364</v>
       </c>
-      <c r="AH9" s="12">
+      <c r="AH9" s="11">
         <v>3024</v>
       </c>
-      <c r="AI9" s="12">
+      <c r="AI9" s="11">
         <v>39340</v>
       </c>
-      <c r="AJ9" s="18">
-        <f>AH9/AG9</f>
+      <c r="AJ9" s="15">
+        <f t="shared" si="10"/>
         <v>0.0713813615333774</v>
       </c>
-      <c r="AK9" s="18">
-        <f>AI9/AG9</f>
+      <c r="AK9" s="15">
+        <f t="shared" si="11"/>
         <v>0.928618638466623</v>
       </c>
-      <c r="AL9" s="23">
-        <f>AB9-AG9</f>
+      <c r="AL9" s="19">
+        <f t="shared" si="12"/>
         <v>-34</v>
       </c>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="12">
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="11">
         <v>2560</v>
       </c>
-      <c r="AO9" s="12">
+      <c r="AO9" s="11">
         <v>1613</v>
       </c>
-      <c r="AP9" s="12">
+      <c r="AP9" s="11">
         <v>947</v>
       </c>
-      <c r="AQ9" s="18">
-        <f>AO9/AN9</f>
+      <c r="AQ9" s="15">
+        <f t="shared" si="14"/>
         <v>0.630078125</v>
       </c>
-      <c r="AR9" s="18">
-        <f>AP9/AN9</f>
+      <c r="AR9" s="15">
+        <f t="shared" si="15"/>
         <v>0.369921875</v>
       </c>
-      <c r="AS9" s="12">
+      <c r="AS9" s="11">
         <v>2079</v>
       </c>
-      <c r="AT9" s="12">
+      <c r="AT9" s="11">
         <v>1235</v>
       </c>
-      <c r="AU9" s="12">
+      <c r="AU9" s="11">
         <v>844</v>
       </c>
-      <c r="AV9" s="18">
-        <f>AT9/AS9</f>
+      <c r="AV9" s="15">
+        <f t="shared" si="16"/>
         <v>0.594035594035594</v>
       </c>
-      <c r="AW9" s="18">
-        <f>AU9/AS9</f>
+      <c r="AW9" s="15">
+        <f t="shared" si="17"/>
         <v>0.405964405964406</v>
       </c>
-      <c r="AX9" s="28">
-        <f>AN9-AS9</f>
+      <c r="AX9" s="11">
+        <f t="shared" si="18"/>
         <v>481</v>
       </c>
-      <c r="AY9" s="29"/>
+      <c r="AY9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/我的创作/财务/国家基本面.xlsx
+++ b/我的创作/财务/国家基本面.xlsx
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="3"/>
